--- a/data/trans_dic/P04B1_1_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P04B1_1_2023-Edad-trans_dic.xlsx
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.7076783281782841</v>
+        <v>0.7076783281782839</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.6117117841017133</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6398256457783217</v>
+        <v>0.6318185111066866</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.5358496119904239</v>
+        <v>0.5384444304230359</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.6113779612229361</v>
+        <v>0.6103442163718861</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7757727379690802</v>
+        <v>0.7703737205684478</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6743912504776224</v>
+        <v>0.6803791706804263</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7078987796144198</v>
+        <v>0.7119347450041837</v>
       </c>
     </row>
     <row r="7">
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.6581297816275109</v>
+        <v>0.6581297816275107</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.655866115363351</v>
+        <v>0.6558661153633512</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.6569672653794822</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.597517925793442</v>
+        <v>0.599034327447441</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6093342822802535</v>
+        <v>0.611642275847048</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6248265371710118</v>
+        <v>0.6221332965506258</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7125080079152636</v>
+        <v>0.7132204146612816</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7036493589223514</v>
+        <v>0.7031657535497592</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.6928268364290061</v>
+        <v>0.6922003817380777</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.6830343730266275</v>
+        <v>0.6830343730266276</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.6912644013916234</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6394082022853015</v>
+        <v>0.6432288421250667</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6616745397850202</v>
+        <v>0.6617019386625048</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6615910004322088</v>
+        <v>0.6610990733496414</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7193644397994049</v>
+        <v>0.7215537367398883</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7234281721157751</v>
+        <v>0.7209742708874006</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7118741977606315</v>
+        <v>0.7112309544453201</v>
       </c>
     </row>
     <row r="13">
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.6944888942832931</v>
+        <v>0.6944888942832929</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.6469677113151949</v>
+        <v>0.646967711315195</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.6701739273188654</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6581240194609391</v>
+        <v>0.6562362710706395</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6145662687148649</v>
+        <v>0.6202795970243</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.646464980793252</v>
+        <v>0.6453827737555311</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7311878101517074</v>
+        <v>0.7266383469879322</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.672746271464381</v>
+        <v>0.6731743045158298</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.692466988685198</v>
+        <v>0.6924892555136338</v>
       </c>
     </row>
     <row r="16">
@@ -787,10 +787,10 @@
         <v>0.663636162890164</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.6397062248004022</v>
+        <v>0.6397062248004024</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.6516480439168483</v>
+        <v>0.6516480439168484</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6279083202281458</v>
+        <v>0.6279238258795505</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.6057675181545877</v>
+        <v>0.6081895978880789</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.6258702052012191</v>
+        <v>0.6298071985314853</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7003465488113251</v>
+        <v>0.6986422154804677</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6668843601016003</v>
+        <v>0.6680075647962141</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.6743975909794431</v>
+        <v>0.676386357940124</v>
       </c>
     </row>
     <row r="19">
@@ -839,13 +839,13 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.6655500390663263</v>
+        <v>0.6655500390663261</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0.6545835785832431</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.6598564468566355</v>
+        <v>0.6598564468566356</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.6280963787662184</v>
+        <v>0.6218865660809726</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.615411804409468</v>
+        <v>0.6214214690904406</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.632002213632845</v>
+        <v>0.6332955919007915</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.7023670508423223</v>
+        <v>0.7015087053471654</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.6879908935520549</v>
+        <v>0.6867335342942522</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.6852058942925339</v>
+        <v>0.6847252369575514</v>
       </c>
     </row>
     <row r="22">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.5990146097856699</v>
+        <v>0.5970883445233272</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.6319351251302383</v>
+        <v>0.6331528746563665</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.6304619882892031</v>
+        <v>0.6304859965809231</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.6872844565501667</v>
+        <v>0.6890251279150705</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6983745901669106</v>
+        <v>0.6989142726535233</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6847816100971647</v>
+        <v>0.685337187555545</v>
       </c>
     </row>
     <row r="25">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.6596822535186151</v>
+        <v>0.658816707162635</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.6408152353989711</v>
+        <v>0.6383068542747566</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.6537409373013325</v>
+        <v>0.6531770454819046</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.6924732583786457</v>
+        <v>0.6932604245303104</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.6679772208576721</v>
+        <v>0.6687310537715124</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.6765786255354931</v>
+        <v>0.6756959493363162</v>
       </c>
     </row>
     <row r="28">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>260916</v>
+        <v>257651</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>193337</v>
+        <v>194273</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>469904</v>
+        <v>469109</v>
       </c>
     </row>
     <row r="7">
@@ -1151,13 +1151,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>316355</v>
+        <v>314153</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>243324</v>
+        <v>245484</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>544090</v>
+        <v>547192</v>
       </c>
     </row>
     <row r="8">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>283969</v>
+        <v>284689</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>305723</v>
+        <v>306881</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>610443</v>
+        <v>607812</v>
       </c>
     </row>
     <row r="11">
@@ -1223,13 +1223,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>338617</v>
+        <v>338956</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>353044</v>
+        <v>352801</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>676878</v>
+        <v>676266</v>
       </c>
     </row>
     <row r="12">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>395679</v>
+        <v>398044</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>410669</v>
+        <v>410686</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>820024</v>
+        <v>819414</v>
       </c>
     </row>
     <row r="15">
@@ -1295,13 +1295,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>445158</v>
+        <v>446513</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>448996</v>
+        <v>447473</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>882348</v>
+        <v>881551</v>
       </c>
     </row>
     <row r="16">
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>461093</v>
+        <v>459770</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>451148</v>
+        <v>455342</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>927489</v>
+        <v>925936</v>
       </c>
     </row>
     <row r="19">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>512283</v>
+        <v>509095</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>493857</v>
+        <v>494171</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>993489</v>
+        <v>993521</v>
       </c>
     </row>
     <row r="20">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>380386</v>
+        <v>380396</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>368396</v>
+        <v>369869</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>759773</v>
+        <v>764552</v>
       </c>
     </row>
     <row r="23">
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>424269</v>
+        <v>423237</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>405564</v>
+        <v>406247</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>818682</v>
+        <v>821097</v>
       </c>
     </row>
     <row r="24">
@@ -1494,13 +1494,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>255055</v>
+        <v>252534</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>269845</v>
+        <v>272480</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>533760</v>
+        <v>534852</v>
       </c>
     </row>
     <row r="27">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>285215</v>
+        <v>284867</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>301669</v>
+        <v>301118</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>578693</v>
+        <v>578287</v>
       </c>
     </row>
     <row r="28">
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>185813</v>
+        <v>185216</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>293194</v>
+        <v>293759</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>488078</v>
+        <v>488097</v>
       </c>
     </row>
     <row r="31">
@@ -1583,13 +1583,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>213194</v>
+        <v>213734</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>324019</v>
+        <v>324270</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>530131</v>
+        <v>530561</v>
       </c>
     </row>
     <row r="32">
@@ -1638,13 +1638,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>2325085</v>
+        <v>2322034</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>2388874</v>
+        <v>2379523</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>4741204</v>
+        <v>4737114</v>
       </c>
     </row>
     <row r="35">
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>2440659</v>
+        <v>2443433</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>2490130</v>
+        <v>2492940</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>4906832</v>
+        <v>4900431</v>
       </c>
     </row>
     <row r="36">
